--- a/sample/毎回配信者がバラバラ_4人チーム/スケジュール表.xlsx
+++ b/sample/毎回配信者がバラバラ_4人チーム/スケジュール表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OmegaRin\ネット+音楽活動\配信・動画関連\tools\multi_task_assistant_for_discord\sample\毎回配信者がバラバラ_4人チーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE63021E-9308-4D38-9FD3-C54D104642F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EC9B9C-3B54-452C-B23C-5C22C74CB510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FA422CED-88E5-44EF-A937-56C46D7484AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA422CED-88E5-44EF-A937-56C46D7484AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
   <si>
     <t>開始時間</t>
     <rPh sb="0" eb="4">
@@ -170,12 +170,28 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>liver1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>liver2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>liver3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>liver4</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +212,14 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -259,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,16 +299,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -384,8 +411,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -401,7 +428,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2324100" y="4305299"/>
-          <a:ext cx="7115175" cy="2819401"/>
+          <a:ext cx="7115175" cy="4229101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -438,6 +465,21 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>基本的にフォーマットは変更しないでください</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
                 <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </a:rPr>
@@ -931,6 +973,254 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>　　　　それぞれ半角で入力する（現状、空欄も不参加扱いになる）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　　増やす・減らす場合</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　　　列を増やして </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>or </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>削除して </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>o x </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を書く</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>config.json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>liver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の内容を継ぎ足し </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>or </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 削除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、アイコンの配置位置などを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>config.json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で調整する</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　　　それにあったスケジュール画像のフォーマットを用意する</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
             <a:solidFill>
@@ -1384,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE74225-E828-4553-A72D-DD4364D83BDD}">
   <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1395,12 +1685,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
@@ -1419,16 +1709,16 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>14</v>
@@ -1453,6 +1743,18 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
       <c r="M3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1476,6 +1778,18 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
       <c r="M4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1506,10 +1820,10 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
@@ -1522,23 +1836,16 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.91666666666666663</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -1566,13 +1873,13 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
         <v>9</v>
@@ -1596,6 +1903,18 @@
       <c r="F8" t="s">
         <v>17</v>
       </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
@@ -1616,16 +1935,16 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
         <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1715,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC32E96-67B4-4DD5-A03D-7450DDA2AAD6}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1731,12 +2050,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
@@ -1745,32 +2064,32 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:14" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1781,8 +2100,8 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5">
         <v>31</v>
       </c>
       <c r="C3" s="8">
@@ -1791,16 +2110,24 @@
       <c r="D3" s="8">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="M3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1809,8 +2136,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="8">
@@ -1819,16 +2146,24 @@
       <c r="D4" s="8">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="G4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="M4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1837,8 +2172,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="8">
@@ -1847,23 +2182,23 @@
       <c r="D5" s="8">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>9</v>
+      <c r="I5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
@@ -1873,40 +2208,34 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
-        <v>0.875</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="H6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5">
         <v>4</v>
       </c>
       <c r="C7" s="8">
@@ -1915,30 +2244,30 @@
       <c r="D7" s="8">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="H7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5">
         <v>5</v>
       </c>
       <c r="C8" s="8">
@@ -1947,22 +2276,30 @@
       <c r="D8" s="8">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="G8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5">
         <v>6</v>
       </c>
       <c r="C9" s="8">
@@ -1971,23 +2308,23 @@
       <c r="D9" s="8">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>9</v>
+      <c r="J9" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -2062,10 +2399,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E9" xr:uid="{648DBE6A-95B2-41C4-9428-3206EE262B41}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E9" xr:uid="{5310A6DE-5379-4A9A-8595-F9C9F31E7122}">
       <formula1>$M$3:$M$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F9" xr:uid="{3BFD1A40-21BD-4C4E-A03B-5E36D816E9E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F9" xr:uid="{D6116F63-03B9-4F7B-B44A-E74B34D2C212}">
       <formula1>$N$3:$N$24</formula1>
     </dataValidation>
   </dataValidations>
